--- a/medicine/Mort/Cimetière_de_Lexington/Cimetière_de_Lexington.xlsx
+++ b/medicine/Mort/Cimetière_de_Lexington/Cimetière_de_Lexington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lexington</t>
+          <t>Cimetière_de_Lexington</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Lexington est un cimetière et arboretum privé, à but non lucratif de 170 acre (69 ha), situé au 833 W. Main Street, à Lexington, au Kentucky. Il est ouvert au public de 8 heures à 17 heures.
 Le cimetière de Lexington est créé en 1849 comme un lieu de beauté et un cimetière public, en partie pour faire face aux sépultures de l'épidémie de choléra dans la région. Il contient maintenant plus de 64000 tombes. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lexington</t>
+          <t>Cimetière_de_Lexington</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,85 @@
           <t>Sépultures notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le cimetière de Lexington tient à jour une liste des sépultures notables[1], d'autres sont listées ici:
-A
-George Madison Adams (1837-1920) - vétéran de la guerre de Sécession, le membre du congrès des États-Unis
-James Allen Lane (1849-1925) - auteur
-B
-Milton K. Barlow (1818-1891) -inventeur du planétarium
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Lexington tient à jour une liste des sépultures notables, d'autres sont listées ici:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>George Madison Adams (1837-1920) - vétéran de la guerre de Sécession, le membre du congrès des États-Unis
+James Allen Lane (1849-1925) - auteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Milton K. Barlow (1818-1891) -inventeur du planétarium
 James Burnie Beck (1822-1890) - sénateur
 Charles Henry Berryman (1867-1946) - Gen pour la ferme d'Elmendorf de Mgr James Ben Ali Haggin 1904-1914, Postmaster de Lexington  1915-1917, président et copropriétaire de l'hôtel Phoenix (Lexington, Kentucky) 1920
 Clifton R. Breckinridge (1846-1932) - John Cabell Breckinridge, fils de
@@ -532,9 +615,43 @@
 Sanders Dewees Bruce (1825-1902) - général de l'armée de l'Union
 Aylette Buckner (1806-1869) - membre du congrès des États-Unis
 Joseph Henry Bush (1794-1865) - portraitiste
-Abraham Buford (1820-1884) -général confédéré de la guerre de Sécession, éleveur de chevaux
-C
-Henry Clay (1777-1852) - (président de la chambre avant la guerre de sécession , candidat à trois reprises à la présidentielle des États-Unis, architecte du compromis du Missouri
+Abraham Buford (1820-1884) -général confédéré de la guerre de Sécession, éleveur de chevaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Henry Clay (1777-1852) - (président de la chambre avant la guerre de sécession , candidat à trois reprises à la présidentielle des États-Unis, architecte du compromis du Missouri
 James Brown Clay (1817-1864) - membre du congrès des États-Unis
 Laura Clay (1849-1941) - suffragette
 Marie Barr Clay (1839-1924) - leader du mouvement pour le droit de vote des femmes
@@ -542,39 +659,345 @@
 Leslie Combs (1793-1881) - vétéran de la guerre de 1812, général
 Robert Wickliffe Cooper (1831-1867) - officier de l'armée de l'Union. Service après-guerre en tant que second commandant du 7th Cavalry (général. Geo. A. Custer). Mort ignominieusement avant de Little Big Horn.
 Jesse Orin Creech (1895-1948) - La Première Guerre Mondiale Fighter Ace
-Rev Spencer Cooper, administrateur de l'Université de Translyvania 1829. S'occupe des malades de l'épidémie de choléra de 1833, est devenu malade et ne se remet jamais complètement. Pasteur de l'Église méthodiste épiscopale dans la ville de Lexington. Propriétaire d'une maison de poudre (en fait de la poudre à canon).
-D
-Herman Lee Donovan, (1887-1964), quatrième président de l'université du Kentucky
+Rev Spencer Cooper, administrateur de l'Université de Translyvania 1829. S'occupe des malades de l'épidémie de choléra de 1833, est devenu malade et ne se remet jamais complètement. Pasteur de l'Église méthodiste épiscopale dans la ville de Lexington. Propriétaire d'une maison de poudre (en fait de la poudre à canon).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Herman Lee Donovan, (1887-1964), quatrième président de l'université du Kentucky
 Benjamin Winslow Dudley (1785-1870), chirurgien. Nommé président de la chirurgie et de l'anatomie à la l'université de Transylvania 1809, et de nouveau en 1818. Pionnier de procédures chirurgicales, y compris l'enlèvement de pierres (gynécologique) et de la chirurgie crânienne pour l'épilepsie.
 Ethelbert Ludlow Dudley, docteur en médecine, et colonel de la guerre de Sécession
-Basil Wilson Duke (1838-1916) - général de la guerre de Sécession [2]
+Basil Wilson Duke (1838-1916) - général de la guerre de Sécession 
 George B. Duncan (1861-1950) - général de l'armée des États-Unis de la première guerre mondiale
-Henry Clay Dunlap (1828-1872) - brigadier général breveté de l'Union de la guerre de Sécession
-E
-Andrew Eugene Erwin (1830-1863) - officier de l'armée Confédérée de la guerre de Sécession
-F
-Joseph S. Fowler (1820-1902) - sénateur
-G
-John R. Gaines (1928-2005) - pionnier, philanthrope
+Henry Clay Dunlap (1828-1872) - brigadier général breveté de l'Union de la guerre de Sécession</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Andrew Eugene Erwin (1830-1863) - officier de l'armée Confédérée de la guerre de Sécession</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Joseph S. Fowler (1820-1902) - sénateur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>John R. Gaines (1928-2005) - pionnier, philanthrope
 John M. Gaver, Sr (1900-1982) - entraîneur de chevaux de course
 Randall L. Gibson (1832-1892) - sénateur, brigadier général breveté confédéré de la guerre de Sécession
 Thomas Boston Gordon (1816-1891) - l'un des fondateurs de la fraternité Beta Theta Pi
-Gordon Granger (1822-1876) - major général de l'Union de la guerre de Sécession
-H
-Henry Hampton Halley (1874-1965) - auteur du Halley's Bible Handbook
+Gordon Granger (1822-1876) - major général de l'Union de la guerre de Sécession</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Henry Hampton Halley (1874-1965) - auteur du Halley's Bible Handbook
 Roger Hanson (1827-1863) - brigadier général breveté confédéré de la guerre de Sécession
 Hal Prix Headley (1888-1962) - propriétaire de chevauxde course/éleveur
 Thomas H. Hunt (1815-1884) - officier confédéré de la guerre de Sécession
 Thomas Hughes (1789-1862), Propriété de la ferme, appelée plus tard Elmendorf Farm de 1855 à 1862. Quand il l'a acheté à Carter Harrison, Sr , elle a été appelée Clifton.
-William Thomas Hughes (1832-1874) WT, fils de Thomas, a hérité de la ferme, appelé plus tard Elmendorf Farm en 1862. Il a commencé à acheter des terres à des taux d'intérêt élevés, et à élever un troupeau de bovins. Il fut assassiné par son oncle pour le défaut de paiement sur un prêt.
-J
-John Telemachus Johnson (1788-1856) - membre du Congrès des États-Unis
-K
-William P. Kimball (1857-1926) - membre du Congrès des États-Unis
-L
-Thomas Lewinski, architecte
-M
-Gene Markey (1895-1980) - scénariste d'Hollywood et producteur et officier de la marine des États-Unis décoré - vétéran de la première guerre mondiale et de la seconde guerre mondiale
+William Thomas Hughes (1832-1874) WT, fils de Thomas, a hérité de la ferme, appelé plus tard Elmendorf Farm en 1862. Il a commencé à acheter des terres à des taux d'intérêt élevés, et à élever un troupeau de bovins. Il fut assassiné par son oncle pour le défaut de paiement sur un prêt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>John Telemachus Johnson (1788-1856) - membre du Congrès des États-Unis</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>William P. Kimball (1857-1926) - membre du Congrès des États-Unis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Thomas Lewinski, architecte</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Gene Markey (1895-1980) - scénariste d'Hollywood et producteur et officier de la marine des États-Unis décoré - vétéran de la première guerre mondiale et de la seconde guerre mondiale
 Lucille P. Markey (1896-1982) - propriétaire, Calumet Farm, épouse de Gene Markey
 Alexander Marshall (1808-1884) - membre du Congrès des États-Unis
 Thomas Alexander Marshall (1794-1871) - membre du Congrès des États-Unis
@@ -582,40 +1005,244 @@
 Byron McClelland (1855-1897), propriétaire/éleveur de chevaux de course pur-sang
 Hugh McKee (1844-1871) - officier de la marine
 John McMurtry (1812-1890), constructeur et architecte
-John Hunt Morgan (1825-1864) - Guerre Civile en général Confédéré
-P
-Rév. Dr Charles Lynn Pyatt, doyen du Colleège of the Bible
-R
-James Reilly (1811-1863) - homme politique
+John Hunt Morgan (1825-1864) - Guerre Civile en général Confédéré</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rév. Dr Charles Lynn Pyatt, doyen du Colleège of the Bible</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>James Reilly (1811-1863) - homme politique
 George Robertson (1790-1874) - membre du Congrès des États-Unis
 Arthur B. Rouse (1874-1956) - membre du Congrès des États-Unis
-Adolph Rupp (1901-1977) - entraîneur inscrit au temple de la nommée du basket-ball
-S
-George S. Shanklin (1807-1883) - membre du Congrès des États-Unis
+Adolph Rupp (1901-1977) - entraîneur inscrit au temple de la nommée du basket-ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>George S. Shanklin (1807-1883) - membre du Congrès des États-Unis
 Jouett Shouse (1879-1968) - membre du Congrès des États-Unis
 Cincinnatus Shryock (1816-1888) - architecte
-William "King" Solomon, (1775-1854) - ivrogne de la ville, héros de la Ville - L'épidémie de choléra de 1833 a tué 500 habitants en 2 mois. King Solomon est resté à Lexington pour creuser les tombes, gagnant le respect durable de la ville[3].
-King Swope (1893-1961) - membre du Congrès des États-Unis
-T
-Barak G. Thomas (1826-1906),  éleveur de chevaux de course pur-sang
+William "King" Solomon, (1775-1854) - ivrogne de la ville, héros de la Ville - L'épidémie de choléra de 1833 a tué 500 habitants en 2 mois. King Solomon est resté à Lexington pour creuser les tombes, gagnant le respect durable de la ville.
+King Swope (1893-1961) - membre du Congrès des États-Unis</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Barak G. Thomas (1826-1906),  éleveur de chevaux de course pur-sang
 Eliza Parker Todd - épouse de Robert Smith Todd et mère de Mary Todd Lincoln
 Levi Todd (1756-1807), un des fondateurs de Lexington et grand-père de Mary Todd Lincoln
 Lyman Beecher Todd, MD (18 ans? – 1901) cousin de Mary Todd Lincoln. Ami proche de Lincoln. L'un des médecins qui a aidé à traiter le président la nuit de l'assassinat.
 Robert Smith Todd (17? – 1849), père de Mary Todd Lincoln, Fils de Levi Todd
-William Henry Townsend (1890-1964) - historien et auteur
-U-V
-Thomas R. Underwood (1898-1956) - membre du Congrès des États-Unis, sénateur
+William Henry Townsend (1890-1964) - historien et auteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>U-V</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Thomas R. Underwood (1898-1956) - membre du Congrès des États-Unis, sénateur
 Solomon Van Meter, Sr (1818-1859) agriculteur et importateur de bovins shorthorn, Duncastle Farm
-Solomon Lee Van Meter (1859-1928), membre de la législature de l'État du Kentucky élu en 1899, agriculteur. Fils de Solomon Van Meter. Propriétaire de Shenandoah Hall sur la Bryan Station Pike[4].
+Solomon Lee Van Meter (1859-1928), membre de la législature de l'État du Kentucky élu en 1899, agriculteur. Fils de Solomon Van Meter. Propriétaire de Shenandoah Hall sur la Bryan Station Pike.
 Solomon Lee Van Meter, Jr (1888-1937) inventeur du Ripcord Backpack Parachute, fils de Salomon Lee Van Meter.
 2nd Lt Salomon Lee Van Meter, III (1925-1953) Pilote mort pendant la guerre de Corée, fils de S. L. Van Meter, Jr
 James Albert Varney, Sr (1910-1985) - père de Jim Varney
 Jim Varney (1949-2000) - acteur mieux connu pour le rôle d'Ernest P. Worrell
-Louise H. Varney (1913-1994) - mère de Jim Varney
-W
-Elisha Warfield (1781-1859), médecin, universitaire,  éleveur de chevaux de course pur-sang
+Louise H. Varney (1913-1994) - mère de Jim Varney</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Lexington</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Lexington</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Elisha Warfield (1781-1859), médecin, universitaire,  éleveur de chevaux de course pur-sang
 Ethelbert Dudley Warfield (1861-1936), président d'université
-Daniel Carmichal "DC" Wickcliffe (1810-1870) [5] whig/démocrate, secrétaire d'État du Kentucky, 1862-63, propriétaire de journal et rédacteur en chef du "Lexington Observer &amp; Reporter" 1838-1865
+Daniel Carmichal "DC" Wickcliffe (1810-1870)  whig/démocrate, secrétaire d'État du Kentucky, 1862-63, propriétaire de journal et rédacteur en chef du "Lexington Observer &amp; Reporter" 1838-1865
 Katharine E. Wilkie (1904-1980) - auteur
 Elisha I. Winter (1781-1849) - membre du Congrès des États-Unis</t>
         </is>
